--- a/Titanic Dataset .xlsx
+++ b/Titanic Dataset .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://egms-my.sharepoint.com/personal/majo169_egms_no/Documents/Own_projects/Titanic Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{32EEEE68-8173-403C-8FF5-DC6551D4FE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C07E9227-3094-44E1-BA58-0C10079B3F82}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{32EEEE68-8173-403C-8FF5-DC6551D4FE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E24A567-54DC-4FA7-8B41-997524044030}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>Feature</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>voting Classifier 2</t>
+  </si>
+  <si>
+    <t>0.77511</t>
+  </si>
+  <si>
+    <t>0.78229</t>
+  </si>
+  <si>
+    <t>ML Model</t>
   </si>
 </sst>
 </file>
@@ -277,10 +286,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -296,6 +305,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -587,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,11 +633,13 @@
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -823,15 +838,23 @@
       <c r="G13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="H14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
